--- a/seleniumDemo/安华官网升级验证checklist.xlsx
+++ b/seleniumDemo/安华官网升级验证checklist.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
   <si>
     <t>采集人</t>
   </si>
@@ -71,6 +71,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>堡垒机</t>
     </r>
     <r>
@@ -418,12 +425,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,39 +491,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,7 +528,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,13 +560,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,7 +574,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -569,30 +583,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,7 +613,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,21 +627,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -677,6 +695,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -689,13 +767,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +809,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,7 +845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,25 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,103 +875,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1041,41 +1059,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,26 +1098,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,6 +1123,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1146,10 +1164,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1158,16 +1176,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1176,118 +1194,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
